--- a/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Tristan Albatross_Gough.xlsx
+++ b/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Tristan Albatross_Gough.xlsx
@@ -2666,13 +2666,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B4569A3-05AF-49C0-A537-9AED0DCE0D1D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B19D535-DFBD-45EF-AB35-BB6695540AA8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5258FA02-EF85-402C-BC96-70C422E28D61}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A87E6E1A-3271-41B3-81D7-BBDAA1956E53}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B3E28CC-483D-484E-A7D4-D9FEB35E0C8A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12D949B9-4C20-44C2-9ADE-BD82377BCFEE}"/>
 </file>